--- a/Phone2Case.xlsx
+++ b/Phone2Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC1D74-FEE0-40B6-AFFD-E66CF294AE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AAD6B-204E-48B9-B446-C384D133CF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Not required</t>
   </si>
 </sst>
 </file>
@@ -643,7 +649,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,7 +888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>62</v>
       </c>
@@ -893,7 +899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>63</v>
       </c>
@@ -904,7 +910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -927,10 +933,13 @@
         <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>19</v>
       </c>
@@ -941,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>22</v>
       </c>
@@ -952,7 +961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>26</v>
       </c>
@@ -963,7 +972,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>29</v>
       </c>
@@ -974,7 +983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>32</v>
       </c>
@@ -985,7 +994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>35</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>41</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F28" t="s">
         <v>44</v>
       </c>
